--- a/data/trans_orig/P78C7_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P78C7_2023-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{ECB95BC4-ADF7-4AE3-8D47-BB0DE9DD0609}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{513237F4-29B8-432A-9BE8-0A325ADBD0D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{50EC0E89-1820-4F14-B14B-1986ECB10138}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{BDEF6861-4F61-4799-A83B-0C6377775E9D}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="53">
   <si>
     <t>Población según si tiene resuelto  el retraso en los pagos de las tasas de autónomos en 2023 (Tasa respuesta: 0,24%)</t>
   </si>
@@ -65,97 +65,94 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>Sí</t>
   </si>
   <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>22,85%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>69,43%</t>
+  </si>
+  <si>
+    <t>73,58%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>77,15%</t>
+  </si>
+  <si>
+    <t>30,57%</t>
+  </si>
+  <si>
+    <t>26,42%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>72,88%</t>
+  </si>
+  <si>
+    <t>14,94%</t>
+  </si>
+  <si>
+    <t>63,75%</t>
+  </si>
+  <si>
+    <t>82,57%</t>
+  </si>
+  <si>
+    <t>40,05%</t>
+  </si>
+  <si>
+    <t>27,12%</t>
+  </si>
+  <si>
+    <t>84,82%</t>
+  </si>
+  <si>
+    <t>36,25%</t>
+  </si>
+  <si>
+    <t>17,43%</t>
+  </si>
+  <si>
+    <t>59,97%</t>
+  </si>
+  <si>
+    <t>&gt;50.000 hab</t>
+  </si>
+  <si>
+    <t>62,25%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
     <t>—%</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>22,85%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>69,43%</t>
-  </si>
-  <si>
-    <t>73,58%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>77,15%</t>
-  </si>
-  <si>
-    <t>30,57%</t>
-  </si>
-  <si>
-    <t>26,42%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>75,34%</t>
-  </si>
-  <si>
-    <t>16,13%</t>
-  </si>
-  <si>
-    <t>63,75%</t>
-  </si>
-  <si>
-    <t>84,35%</t>
-  </si>
-  <si>
-    <t>41,27%</t>
-  </si>
-  <si>
-    <t>24,66%</t>
-  </si>
-  <si>
-    <t>83,87%</t>
-  </si>
-  <si>
-    <t>36,25%</t>
-  </si>
-  <si>
-    <t>15,65%</t>
-  </si>
-  <si>
-    <t>58,73%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>64,97%</t>
-  </si>
-  <si>
-    <t>16,0%</t>
-  </si>
-  <si>
-    <t>35,03%</t>
-  </si>
-  <si>
-    <t>84,0%</t>
+    <t>37,75%</t>
+  </si>
+  <si>
+    <t>85,9%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -167,34 +164,34 @@
     <t>56,93%</t>
   </si>
   <si>
-    <t>75,35%</t>
-  </si>
-  <si>
-    <t>42,02%</t>
+    <t>73,13%</t>
+  </si>
+  <si>
+    <t>38,49%</t>
   </si>
   <si>
     <t>82,92%</t>
   </si>
   <si>
-    <t>84,15%</t>
-  </si>
-  <si>
-    <t>54,62%</t>
-  </si>
-  <si>
-    <t>24,65%</t>
-  </si>
-  <si>
-    <t>57,98%</t>
+    <t>82,54%</t>
+  </si>
+  <si>
+    <t>52,84%</t>
+  </si>
+  <si>
+    <t>26,87%</t>
+  </si>
+  <si>
+    <t>61,51%</t>
   </si>
   <si>
     <t>17,08%</t>
   </si>
   <si>
-    <t>15,85%</t>
-  </si>
-  <si>
-    <t>45,38%</t>
+    <t>17,46%</t>
+  </si>
+  <si>
+    <t>47,16%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -609,8 +606,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AC6DDA6-49E8-48A5-9989-9BF55E373F9E}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BE3C05D-C73C-4231-BDF6-68237E924544}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -727,88 +724,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="D4" s="7">
+        <v>1060</v>
+      </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7"/>
+        <v>5</v>
+      </c>
+      <c r="I4" s="7">
+        <v>3141</v>
+      </c>
       <c r="J4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7"/>
+        <v>6</v>
+      </c>
+      <c r="N4" s="7">
+        <v>4200</v>
+      </c>
       <c r="O4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C5" s="7">
         <v>0</v>
       </c>
-      <c r="D5" s="7"/>
+      <c r="D5" s="7">
+        <v>0</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
       </c>
-      <c r="I5" s="7"/>
+      <c r="I5" s="7">
+        <v>0</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
       </c>
-      <c r="N5" s="7"/>
+      <c r="N5" s="7">
+        <v>0</v>
+      </c>
       <c r="O5" s="7" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -817,117 +826,123 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="D6" s="7">
+        <v>1060</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>5</v>
+      </c>
+      <c r="I6" s="7">
+        <v>3141</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7"/>
+        <v>6</v>
+      </c>
+      <c r="N6" s="7">
+        <v>4200</v>
+      </c>
       <c r="O6" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D7" s="7">
-        <v>1187</v>
+        <v>3839</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="H7" s="7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I7" s="7">
-        <v>3593</v>
+        <v>2926</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="M7" s="7">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="N7" s="7">
-        <v>4780</v>
+        <v>6765</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C8" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8" s="7">
-        <v>0</v>
+        <v>1428</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -936,28 +951,28 @@
         <v>0</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="M8" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N8" s="7">
-        <v>0</v>
+        <v>1428</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -966,153 +981,149 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D9" s="7">
-        <v>1187</v>
+        <v>5267</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H9" s="7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I9" s="7">
-        <v>3593</v>
+        <v>2926</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="M9" s="7">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="N9" s="7">
-        <v>4780</v>
+        <v>8193</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D10" s="7">
-        <v>4652</v>
+        <v>3128</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="H10" s="7">
-        <v>4</v>
-      </c>
-      <c r="I10" s="7">
-        <v>3554</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I10" s="7"/>
       <c r="J10" s="7" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="M10" s="7">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="N10" s="7">
-        <v>8206</v>
+        <v>3128</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C11" s="7">
         <v>1</v>
       </c>
       <c r="D11" s="7">
-        <v>1522</v>
+        <v>1896</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
       </c>
-      <c r="I11" s="7">
-        <v>0</v>
-      </c>
+      <c r="I11" s="7"/>
       <c r="J11" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="M11" s="7">
         <v>1</v>
       </c>
       <c r="N11" s="7">
-        <v>1523</v>
+        <v>1896</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1121,149 +1132,151 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D12" s="7">
-        <v>6174</v>
+        <v>5024</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H12" s="7">
+        <v>0</v>
+      </c>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="L12" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="M12" s="7">
         <v>4</v>
       </c>
-      <c r="I12" s="7">
-        <v>3554</v>
-      </c>
-      <c r="J12" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="M12" s="7">
-        <v>9</v>
-      </c>
       <c r="N12" s="7">
-        <v>9729</v>
+        <v>5024</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D13" s="7">
-        <v>3654</v>
+        <v>1022</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H13" s="7">
-        <v>0</v>
-      </c>
-      <c r="I13" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="I13" s="7">
+        <v>607</v>
+      </c>
       <c r="J13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K13" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M13" s="7">
+        <v>2</v>
+      </c>
+      <c r="N13" s="7">
+        <v>1628</v>
+      </c>
+      <c r="O13" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="L13" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="M13" s="7">
-        <v>3</v>
-      </c>
-      <c r="N13" s="7">
-        <v>3654</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>36</v>
-      </c>
       <c r="P13" s="7" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C14" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14" s="7">
-        <v>1970</v>
+        <v>0</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="F14" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="G14" s="7" t="s">
-        <v>39</v>
-      </c>
       <c r="H14" s="7">
         <v>0</v>
       </c>
-      <c r="I14" s="7"/>
+      <c r="I14" s="7">
+        <v>0</v>
+      </c>
       <c r="J14" s="7" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="M14" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N14" s="7">
-        <v>1970</v>
+        <v>0</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1272,121 +1285,123 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D15" s="7">
-        <v>5624</v>
+        <v>1022</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H15" s="7">
-        <v>0</v>
-      </c>
-      <c r="I15" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="I15" s="7">
+        <v>607</v>
+      </c>
       <c r="J15" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="M15" s="7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N15" s="7">
-        <v>5624</v>
+        <v>1628</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>40</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D16" s="7">
-        <v>1182</v>
+        <v>9047</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="H16" s="7">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="I16" s="7">
-        <v>716</v>
+        <v>6673</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="M16" s="7">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="N16" s="7">
-        <v>1898</v>
+        <v>15721</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>14</v>
+        <v>45</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C17" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D17" s="7">
-        <v>0</v>
+        <v>3325</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -1395,28 +1410,28 @@
         <v>0</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="M17" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N17" s="7">
-        <v>0</v>
+        <v>3325</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1425,217 +1440,61 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D18" s="7">
-        <v>1182</v>
+        <v>12372</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H18" s="7">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="I18" s="7">
-        <v>716</v>
+        <v>6673</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="M18" s="7">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="N18" s="7">
-        <v>1898</v>
+        <v>19046</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>9</v>
-      </c>
-      <c r="D19" s="7">
-        <v>10674</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="H19" s="7">
-        <v>10</v>
-      </c>
-      <c r="I19" s="7">
-        <v>7864</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="M19" s="7">
-        <v>19</v>
-      </c>
-      <c r="N19" s="7">
-        <v>18538</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C20" s="7">
-        <v>2</v>
-      </c>
-      <c r="D20" s="7">
-        <v>3492</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="H20" s="7">
-        <v>0</v>
-      </c>
-      <c r="I20" s="7">
-        <v>0</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="M20" s="7">
-        <v>2</v>
-      </c>
-      <c r="N20" s="7">
-        <v>3493</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q20" s="7" t="s">
+      <c r="A19" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>11</v>
-      </c>
-      <c r="D21" s="7">
-        <v>14166</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="H21" s="7">
-        <v>10</v>
-      </c>
-      <c r="I21" s="7">
-        <v>7864</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="M21" s="7">
-        <v>21</v>
-      </c>
-      <c r="N21" s="7">
-        <v>22031</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>53</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
